--- a/data/case1/5/Plm2_6.xlsx
+++ b/data/case1/5/Plm2_6.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.27621652197818491</v>
+        <v>-0.27610753363967433</v>
       </c>
       <c r="B1" s="0">
-        <v>0.27571440883383502</v>
+        <v>0.27560478518930154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.15462198444046216</v>
+        <v>-0.15458839247990319</v>
       </c>
       <c r="B2" s="0">
-        <v>0.15368741625165505</v>
+        <v>0.15365158353738906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.050747101117341487</v>
+        <v>-0.05071130094792764</v>
       </c>
       <c r="B3" s="0">
-        <v>0.050669411296940581</v>
+        <v>0.050633025906705598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.11266941080891968</v>
+        <v>-0.11263302540968212</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11235295724562988</v>
+        <v>0.11231625860670036</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10635295794954303</v>
+        <v>-0.10631625931242894</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10574235258117159</v>
+        <v>0.10570500721948317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.09213955466744661</v>
+        <v>-0.091955166756567674</v>
       </c>
       <c r="B6" s="0">
-        <v>0.092031818672108301</v>
+        <v>0.091848210421579424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.072031819511451545</v>
+        <v>-0.071848211265388429</v>
       </c>
       <c r="B7" s="0">
-        <v>0.071751369987152813</v>
+        <v>0.071571164401508014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.051751370833693855</v>
+        <v>-0.051571165252589424</v>
       </c>
       <c r="B8" s="0">
-        <v>0.051461839170056756</v>
+        <v>0.051287129979271207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.020619332532998413</v>
+        <v>-0.020886683471102785</v>
       </c>
       <c r="B9" s="0">
-        <v>0.020562097028333781</v>
+        <v>0.020828782426465686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.014562097768148874</v>
+        <v>-0.014828783168724158</v>
       </c>
       <c r="B10" s="0">
-        <v>0.014562035831481523</v>
+        <v>0.014828741198464002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.010062036558746712</v>
+        <v>-0.010328741927885687</v>
       </c>
       <c r="B11" s="0">
-        <v>0.010056122824334324</v>
+        <v>0.010322880235833054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0040561235644704929</v>
+        <v>-0.0043228809784188194</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0040408106712210845</v>
+        <v>0.0043074288712192654</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.001959188587889571</v>
+        <v>0.001692570385367631</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0019614987127640759</v>
+        <v>-0.0016948170229333925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.013961497921464172</v>
+        <v>0.013694816228110085</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.013968352533934691</v>
+        <v>-0.01370136129341315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021050851591368769</v>
+        <v>-0.021050838467893129</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026626553613426</v>
+        <v>0.021026622354984426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026627295238626</v>
+        <v>-0.015026623099186676</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004086440703279</v>
+        <v>0.015004068770085865</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009004087184973919</v>
+        <v>-0.0090040695169868457</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999992299327758</v>
+        <v>0.0089999992267761897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11109242511158612</v>
+        <v>-0.11101639343013403</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11096153279761722</v>
+        <v>0.11088551161709503</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096665360827998</v>
+        <v>-0.02709664292698033</v>
       </c>
       <c r="B19" s="0">
-        <v>0.02701342393486561</v>
+        <v>0.027013396450509486</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013424653030796</v>
+        <v>-0.018013397171024792</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004273540645599</v>
+        <v>0.018004271066040189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042742596097014</v>
+        <v>-0.0090042717873561884</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999992805251949</v>
+        <v>0.0089999992781306659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093940315855288503</v>
+        <v>-0.093940283312601736</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093630020952243598</v>
+        <v>0.093630020876643627</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084630021679315881</v>
+        <v>-0.084630021605986983</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084125800435688625</v>
+        <v>0.084125794950169919</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125801452630895</v>
+        <v>-0.042125795974953917</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998977821917</v>
+        <v>0.041999998969907359</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0076027986324191943</v>
+        <v>-0.0077498411836920411</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0075889291786914725</v>
+        <v>0.0077362837785344141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0015889298974549604</v>
+        <v>-0.0017362844994011084</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0015715724906684159</v>
+        <v>0.0017193663301249273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0044284267904481922</v>
+        <v>0.0042806329488849215</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0044967187857043456</v>
+        <v>-0.004347688253482751</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.062765143335684392</v>
+        <v>-0.062797927498262851</v>
       </c>
       <c r="B28" s="0">
-        <v>0.062306936628418796</v>
+        <v>0.062339887966161633</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.050306937406084273</v>
+        <v>-0.050339888746997019</v>
       </c>
       <c r="B29" s="0">
-        <v>0.050095392311446219</v>
+        <v>0.050128488739419552</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042161787537013495</v>
+        <v>-0.042161760750588417</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018249225181048</v>
+        <v>0.042018214155696398</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018250038427283</v>
+        <v>-0.027018214972761356</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000619197744768</v>
+        <v>0.027000615615964563</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006200626645523</v>
+        <v>-0.006000616485730248</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999992615349385</v>
+        <v>0.0059999992591670548</v>
       </c>
     </row>
   </sheetData>
